--- a/biology/Botanique/Allium_aaseae/Allium_aaseae.xlsx
+++ b/biology/Botanique/Allium_aaseae/Allium_aaseae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium aaseae, l’oignon du sud de l'Idaho ou oignon d'Aase, est une espèce de plantes à fleurs de la famille des Amaryllidaceae endémique du sud-ouest de l'Idaho. Il a été signalé dans 6 comtés : Elmore, Ada, Boise, Gem, Payette et Washington[2],[3],[4].
-La plante porte le nom de la botaniste américaine Hannah Caroline Aase (1883-1980), autrefois professeur à la Washington State University à Pullman[5].
-Allium aaseae pousse sur des sites sablonneux et graveleux à des altitudes de 800 à 1100 m. Il a des bulbes en forme d'oeuf jusqu'à 2 cm de diamètre et des fleurs roses ou blanches en forme de cloche jusqu'à 10 mm de long[2],[6],[7],[8],[9]..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium aaseae, l’oignon du sud de l'Idaho ou oignon d'Aase, est une espèce de plantes à fleurs de la famille des Amaryllidaceae endémique du sud-ouest de l'Idaho. Il a été signalé dans 6 comtés : Elmore, Ada, Boise, Gem, Payette et Washington.
+La plante porte le nom de la botaniste américaine Hannah Caroline Aase (1883-1980), autrefois professeur à la Washington State University à Pullman.
+Allium aaseae pousse sur des sites sablonneux et graveleux à des altitudes de 800 à 1100 m. Il a des bulbes en forme d'oeuf jusqu'à 2 cm de diamètre et des fleurs roses ou blanches en forme de cloche jusqu'à 10 mm de long..
 </t>
         </is>
       </c>
